--- a/config_9.29/fish3d_config.xlsx
+++ b/config_9.29/fish3d_config.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="394">
   <si>
     <t>line|行号</t>
   </si>
@@ -2216,6 +2216,10 @@
   </si>
   <si>
     <t>by_imgf_zp53</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>星星鱼</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2799,7 +2803,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G62" sqref="G62"/>
+      <selection pane="topRight" activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8079,7 +8083,7 @@
         <v>391</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="F58" s="13" t="s">
         <v>392</v>
